--- a/Fiche_Exemple.xlsx
+++ b/Fiche_Exemple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\BOULOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\BOULOT\fiche de paie\Fiche_de_Paye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8E86D3-6297-433D-96E9-0180423A6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2D1998-15D3-435B-873F-CD26F87515AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4044450-EC2F-40B3-BDF9-568C0D9FF30A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>NOMBRE D'HEURES EFFECTUEES (exprimées en heures)</t>
   </si>
@@ -93,13 +93,121 @@
   </si>
   <si>
     <t>F.D.C. :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ce relevé d'heures sera </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFBF4F4C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VALIDE si et seulement si</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFBF4F4C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :
+1- Toutes les informations sont complétées,
+2- Il est signé par l'entreprise cliente et le salarié.
+3- En l'absence de présentation de ce relevé d'heures au cabinet THOUNY-VARIERAS &amp; ASSOCIES, le salaire ne pourra être établi.</t>
+    </r>
+  </si>
+  <si>
+    <t>8 avenue Montaigne - Maille Nord II
+93160 NOISY-LE-GRAND
+Tél : 01 48 72 17 01
+Mobile : 06 78 78 05 83
+Mail : cabinet@thouny-varieras.com</t>
+  </si>
+  <si>
+    <t>Merci d'indiquer le NOM du responsable</t>
+  </si>
+  <si>
+    <t>Responsable :</t>
+  </si>
+  <si>
+    <t>Merci d'indiquer le NOM de l'entreprise</t>
+  </si>
+  <si>
+    <t>Merci d'indiquer le NOM et Prénom du salarié(e)</t>
+  </si>
+  <si>
+    <t>Salarié(e) :</t>
+  </si>
+  <si>
+    <t>Client :</t>
+  </si>
+  <si>
+    <t>ETUDIER POUR PRATIQUER</t>
+  </si>
+  <si>
+    <t>*** N'oubliez pas de préciser les jours de congé payé (CP), d'arrêt maladie (AM).</t>
+  </si>
+  <si>
+    <t>Remarques diverses :</t>
+  </si>
+  <si>
+    <t>ABS :</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>AM :</t>
+  </si>
+  <si>
+    <t>Nb. Tickets restaurant :</t>
+  </si>
+  <si>
+    <t>Hres jour férié travaillé :</t>
+  </si>
+  <si>
+    <t>AT :</t>
+  </si>
+  <si>
+    <t>MTT :</t>
+  </si>
+  <si>
+    <t>Primes :</t>
+  </si>
+  <si>
+    <t>Acompte :</t>
+  </si>
+  <si>
+    <t>RTT :</t>
+  </si>
+  <si>
+    <t>Signature et Cachet Entreprise Cliente :</t>
+  </si>
+  <si>
+    <t>Signature Salarié :</t>
+  </si>
+  <si>
+    <t>Signature Cabinet THOUNY-VARIERAS &amp; ASSOCIES :</t>
+  </si>
+  <si>
+    <t>SAS au capital de 172.000 €- RCS BOBIGNY n° 379 598 824 – N° TVA FR91379598824</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,16 +245,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFBF4F4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFBF4F4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF4F4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -481,11 +625,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,13 +656,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -524,22 +759,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,13 +807,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -572,68 +831,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,6 +900,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBF4F4C"/>
+      <color rgb="FFAD1313"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,6 +915,51 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7856" y="532191"/>
+    <xdr:ext cx="2101850" cy="933450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EB28F9-4120-49BD-87D1-D52743B7E08C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7856" y="532191"/>
+          <a:ext cx="2101850" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,51 +1279,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F712831-A958-4E0C-9E8E-F6511E7E9776}">
-  <dimension ref="A13:AD29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A4:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" customWidth="1"/>
-    <col min="28" max="28" width="15" customWidth="1"/>
-    <col min="29" max="29" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" customWidth="1"/>
+    <col min="5" max="5" width="2.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="2.44140625" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="2.44140625" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" customWidth="1"/>
+    <col min="23" max="23" width="2.88671875" customWidth="1"/>
+    <col min="24" max="24" width="6.109375" customWidth="1"/>
+    <col min="25" max="25" width="2.44140625" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.33203125" customWidth="1"/>
+    <col min="30" max="30" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="X4" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="87"/>
+    </row>
+    <row r="5" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="X5" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="83"/>
+    </row>
+    <row r="6" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="X6" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="80"/>
+    </row>
+    <row r="7" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="X7" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="83"/>
+    </row>
+    <row r="8" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="X8" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="80"/>
+    </row>
+    <row r="9" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="X9" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="76"/>
+    </row>
+    <row r="11" spans="1:30" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="38"/>
+    </row>
     <row r="13" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="9"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="41"/>
       <c r="AD13" s="3"/>
     </row>
     <row r="14" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1023,550 +1567,790 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="50">
         <v>1</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="7">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="50">
         <v>2</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7">
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="50">
         <v>3</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="7">
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="50">
         <v>4</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="7">
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="50">
         <v>5</v>
       </c>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="18"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="56"/>
       <c r="AD14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="11"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="43"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="11"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="43"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B17" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="26" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AC17" s="27"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="28" t="s">
+      <c r="AC17" s="67"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B18" s="72"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="AC18" s="27"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="AC18" s="67"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B19" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="11"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="26" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B20" s="72"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AC20" s="27"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B21" s="30" t="s">
+      <c r="AC20" s="67"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B21" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="29" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AC21" s="27"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B22" s="31"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="11"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+      <c r="AC21" s="67"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B22" s="72"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="43"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B23" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="11"/>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="31"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="13"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="43"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="72"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="45"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B25" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="14" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AC25" s="15"/>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="16">
-        <v>147</v>
-      </c>
-      <c r="AC26" s="15"/>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="AC25" s="47"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B26" s="72"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="54"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B27" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="19" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AC27" s="24" t="s">
+      <c r="AC27" s="64" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B28" s="31"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="25"/>
-    </row>
-    <row r="29" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B28" s="72"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="65"/>
+    </row>
+    <row r="29" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="59">
         <v>1.1666666666666667</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59">
         <v>1.4583333333333333</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="20">
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="59">
         <v>1.1666666666666667</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="20">
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="59">
         <v>1.4583333333333333</v>
       </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="20">
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="59">
         <v>1.1666666666666667</v>
       </c>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="22"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="61"/>
       <c r="AB29" s="2">
         <v>6.416666666666667</v>
       </c>
       <c r="AC29" s="1"/>
     </row>
+    <row r="30" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+    </row>
+    <row r="31" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="41"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="19"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="L33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD33" s="12"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD34" s="12"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="15"/>
+    </row>
+    <row r="36" spans="1:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="N36" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="X36" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+    </row>
+    <row r="37" spans="1:30" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="C14:G14"/>
+  <mergeCells count="89">
+    <mergeCell ref="U37:AD37"/>
+    <mergeCell ref="X36:AC36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A30:AD30"/>
+    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="N7:V9"/>
+    <mergeCell ref="N4:V6"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="E4:L9"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="B17:B18"/>
@@ -1581,6 +2365,8 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="M29:Q29"/>
     <mergeCell ref="R15:R16"/>
@@ -1612,10 +2398,20 @@
     <mergeCell ref="W25:W26"/>
     <mergeCell ref="W27:W28"/>
     <mergeCell ref="W17:W18"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="A11:AD11"/>
     <mergeCell ref="B13:AC13"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="AB15:AC15"/>
@@ -1624,13 +2420,10 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.22" right="0" top="0" bottom="0" header="0" footer="0.01"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Fiche_Exemple.xlsx
+++ b/Fiche_Exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\BOULOT\fiche de paie\Fiche_de_Paye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF1C98-0856-42E6-B9CA-83ABB85F00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B442608-9F4C-42E7-BDF6-1737E2C7685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4044450-EC2F-40B3-BDF9-568C0D9FF30A}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Nb. Tickets restaurant :</t>
   </si>
   <si>
-    <t>Hres jour férié travaillé :</t>
-  </si>
-  <si>
     <t>AT :</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Total :</t>
+  </si>
+  <si>
+    <t>Hres jour férié travaillé : 0</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -731,144 +731,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -892,6 +892,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,10 +1250,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AB34"/>
+  <dimension ref="A2:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13:AB13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="97" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1275,732 +1289,732 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="W2" s="84" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="W2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
       <c r="AA2" s="85"/>
       <c r="AB2" s="86"/>
     </row>
     <row r="3" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="W3" s="81" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="W3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="83"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
     </row>
     <row r="4" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="W4" s="78" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="W4" s="77" t="s">
         <v>23</v>
       </c>
       <c r="X4" s="38"/>
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
-      <c r="AA4" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="80"/>
+      <c r="AA4" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="79"/>
     </row>
     <row r="5" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="W5" s="81" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="W5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="83"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="82"/>
     </row>
     <row r="6" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="W6" s="78" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="W6" s="77" t="s">
         <v>19</v>
       </c>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="80"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="79"/>
     </row>
     <row r="7" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="W7" s="75" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="W7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="77"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="76"/>
     </row>
     <row r="9" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="42"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="41"/>
     </row>
     <row r="10" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="50">
         <v>1</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="51">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="50">
         <v>2</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="51">
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="50">
         <v>3</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="51">
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="50">
         <v>4</v>
       </c>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="51">
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="50">
         <v>5</v>
       </c>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="57"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="49"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="24"/>
       <c r="N11" s="25"/>
       <c r="O11" s="26"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="49"/>
+      <c r="Q11" s="48"/>
       <c r="R11" s="18"/>
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
       <c r="U11" s="16"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="57"/>
       <c r="W11" s="18"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="44"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="50"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
       <c r="J12" s="23"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="50"/>
+      <c r="L12" s="49"/>
       <c r="M12" s="27"/>
       <c r="N12" s="28"/>
       <c r="O12" s="29"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="50"/>
+      <c r="Q12" s="49"/>
       <c r="R12" s="21"/>
       <c r="S12" s="22"/>
       <c r="T12" s="23"/>
       <c r="U12" s="17"/>
-      <c r="V12" s="59"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="21"/>
       <c r="X12" s="22"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="17"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="44"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="43"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="49"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="49"/>
+      <c r="L13" s="48"/>
       <c r="M13" s="18"/>
       <c r="N13" s="19"/>
       <c r="O13" s="20"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="49"/>
+      <c r="Q13" s="48"/>
       <c r="R13" s="18"/>
       <c r="S13" s="19"/>
       <c r="T13" s="20"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="49"/>
+      <c r="V13" s="48"/>
       <c r="W13" s="18"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="67" t="s">
+      <c r="AA13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AB13" s="68"/>
+      <c r="AB13" s="67"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="50"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
       <c r="J14" s="23"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="50"/>
+      <c r="L14" s="49"/>
       <c r="M14" s="21"/>
       <c r="N14" s="22"/>
       <c r="O14" s="23"/>
       <c r="P14" s="17"/>
-      <c r="Q14" s="50"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="23"/>
       <c r="U14" s="17"/>
-      <c r="V14" s="50"/>
+      <c r="V14" s="49"/>
       <c r="W14" s="21"/>
       <c r="X14" s="22"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="17"/>
-      <c r="AA14" s="69" t="s">
+      <c r="AA14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="AB14" s="68"/>
+      <c r="AB14" s="67"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="49"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="49"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19"/>
       <c r="O15" s="20"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="49"/>
+      <c r="Q15" s="48"/>
       <c r="R15" s="18"/>
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="49"/>
+      <c r="V15" s="48"/>
       <c r="W15" s="18"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="44"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="43"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="23"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="50"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="21"/>
       <c r="N16" s="22"/>
       <c r="O16" s="23"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="50"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="21"/>
       <c r="S16" s="22"/>
       <c r="T16" s="23"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="50"/>
+      <c r="V16" s="49"/>
       <c r="W16" s="21"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="17"/>
-      <c r="AA16" s="67" t="s">
+      <c r="AA16" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AB16" s="68"/>
+      <c r="AB16" s="67"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="49"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="49"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="18"/>
       <c r="N17" s="19"/>
       <c r="O17" s="20"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="49"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="18"/>
       <c r="S17" s="19"/>
       <c r="T17" s="20"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="49"/>
+      <c r="V17" s="48"/>
       <c r="W17" s="18"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="70" t="s">
+      <c r="AA17" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AB17" s="68"/>
+      <c r="AB17" s="67"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="50"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="23"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="50"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="21"/>
       <c r="N18" s="22"/>
       <c r="O18" s="23"/>
       <c r="P18" s="17"/>
-      <c r="Q18" s="50"/>
+      <c r="Q18" s="49"/>
       <c r="R18" s="21"/>
       <c r="S18" s="22"/>
       <c r="T18" s="23"/>
       <c r="U18" s="17"/>
-      <c r="V18" s="50"/>
+      <c r="V18" s="49"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="17"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="44"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="43"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="49"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="49"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="18"/>
       <c r="N19" s="19"/>
       <c r="O19" s="20"/>
       <c r="P19" s="16"/>
-      <c r="Q19" s="49"/>
+      <c r="Q19" s="48"/>
       <c r="R19" s="18"/>
       <c r="S19" s="19"/>
       <c r="T19" s="20"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="57"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="44"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="43"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="50"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
       <c r="O20" s="23"/>
       <c r="P20" s="17"/>
-      <c r="Q20" s="50"/>
+      <c r="Q20" s="49"/>
       <c r="R20" s="21"/>
       <c r="S20" s="22"/>
       <c r="T20" s="23"/>
       <c r="U20" s="17"/>
-      <c r="V20" s="59"/>
+      <c r="V20" s="58"/>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="17"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="46"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="45"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="49"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="49"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="49"/>
+      <c r="Q21" s="48"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="57"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="16"/>
-      <c r="AA21" s="47" t="s">
+      <c r="AA21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AB21" s="48"/>
+      <c r="AB21" s="47"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="50"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
       <c r="J22" s="23"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="50"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="21"/>
       <c r="N22" s="22"/>
       <c r="O22" s="23"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="50"/>
+      <c r="Q22" s="49"/>
       <c r="R22" s="21"/>
       <c r="S22" s="22"/>
       <c r="T22" s="23"/>
       <c r="U22" s="17"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="58"/>
       <c r="W22" s="21"/>
       <c r="X22" s="22"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="17"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="55"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="49"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="49"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="16"/>
-      <c r="Q23" s="49"/>
+      <c r="Q23" s="48"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="58"/>
+      <c r="V23" s="57"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="63" t="s">
+      <c r="AA23" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AB23" s="65" t="s">
+      <c r="AB23" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="50"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="21"/>
       <c r="N24" s="22"/>
       <c r="O24" s="23"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="50"/>
+      <c r="Q24" s="49"/>
       <c r="R24" s="21"/>
       <c r="S24" s="22"/>
       <c r="T24" s="23"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="59"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="21"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="17"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="66"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="65"/>
     </row>
     <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="59">
         <v>1.1666666666666667</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="60">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="59">
         <v>1.4583333333333333</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="60">
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="59">
         <v>1.1666666666666667</v>
       </c>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="60">
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="59">
         <v>1.4583333333333333</v>
       </c>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="60">
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="59">
         <v>1.1666666666666667</v>
       </c>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="62"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="61"/>
       <c r="AA25" s="2">
         <v>6.416666666666667</v>
       </c>
@@ -2051,10 +2065,10 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="39"/>
+      <c r="G27" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="84"/>
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
       <c r="K27" s="12" t="s">
@@ -2069,95 +2083,118 @@
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" s="39"/>
+      <c r="Q27" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="84"/>
       <c r="S27" s="91"/>
       <c r="T27" s="91"/>
-      <c r="U27" s="39" t="s">
+      <c r="U27" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
       <c r="Z27" s="5">
         <v>0</v>
       </c>
-      <c r="AA27" s="39" t="s">
-        <v>30</v>
+      <c r="AA27" s="84" t="s">
+        <v>43</v>
       </c>
       <c r="AB27" s="90"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
-      <c r="B28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="30"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="96"/>
       <c r="AB28" s="35"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="35"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="G30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
+      <c r="H30" s="38"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="32" t="s">
+      <c r="N30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="G29" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA29" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB29" s="31"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="U30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="8"/>
+      <c r="Q30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="38"/>
+      <c r="S30" s="92">
+        <v>0</v>
+      </c>
+      <c r="T30" s="92"/>
+      <c r="U30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB30" s="31"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
@@ -2172,114 +2209,159 @@
       <c r="AB31" s="8"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="37"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="34"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="U32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="34"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="U33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="34"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="U34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="38"/>
+      <c r="I35" s="92">
+        <v>0</v>
+      </c>
+      <c r="J35" s="92"/>
+      <c r="K35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="38"/>
+      <c r="S35" s="92">
+        <v>0</v>
+      </c>
+      <c r="T35" s="92"/>
+      <c r="U35" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB35" s="31"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="11"/>
+    </row>
+    <row r="37" spans="1:28" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA32" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB32" s="31"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="11"/>
-    </row>
-    <row r="34" spans="1:28" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="M37" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="M34" s="38" t="s">
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="W37" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="W34" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="W34:AB34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="W37:AB37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A26:AB26"/>
     <mergeCell ref="AA27:AB27"/>
     <mergeCell ref="U27:Y27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="M5:U7"/>
     <mergeCell ref="M2:U4"/>
     <mergeCell ref="W7:AB7"/>
@@ -2331,8 +2413,6 @@
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:U10"/>
     <mergeCell ref="V10:Z10"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="Q25:U25"/>
@@ -2343,15 +2423,13 @@
     <mergeCell ref="V21:V22"/>
     <mergeCell ref="V23:V24"/>
     <mergeCell ref="V13:V14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q35:R35"/>
     <mergeCell ref="A9:AB9"/>
     <mergeCell ref="AA19:AB19"/>
     <mergeCell ref="AA20:AB20"/>
@@ -2364,6 +2442,8 @@
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.22" right="0" top="0" bottom="0" header="0" footer="0.01"/>
